--- a/00-Documentacion/nomenclatura.xlsx
+++ b/00-Documentacion/nomenclatura.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pc\raul\Net\migracion_spooler\00-Documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E874CFE-C0B1-4784-8F42-395284810C95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1AE4E6F-DC8C-4FD6-9BCF-22166712349D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{595E4830-43DA-4794-BED7-741D567A698A}"/>
   </bookViews>
@@ -34,20 +34,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="20">
   <si>
     <t>T</t>
   </si>
   <si>
-    <t>XP</t>
-  </si>
-  <si>
     <t>_</t>
   </si>
   <si>
-    <t>INC</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
@@ -79,6 +73,27 @@
   </si>
   <si>
     <t>generico</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>ic</t>
+  </si>
+  <si>
+    <t>usua</t>
+  </si>
+  <si>
+    <t>objeto</t>
+  </si>
+  <si>
+    <t>Tabla</t>
+  </si>
+  <si>
+    <t>Store</t>
+  </si>
+  <si>
+    <t>SP</t>
   </si>
 </sst>
 </file>
@@ -430,140 +445,146 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26FABF14-C099-4BEC-AF29-2D66042615C1}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D1" t="s">
         <v>8</v>
       </c>
       <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>12</v>
       </c>
-      <c r="I1" t="s">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" t="s">
-        <v>2</v>
-      </c>
       <c r="F3" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G3" t="s">
         <v>2</v>
       </c>
       <c r="H3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" t="str">
+        <f>CONCATENATE(B3,C3,D3,E3,F3,G3,H3,I3)</f>
+        <v>TX_ic_C_usua</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
         <v>13</v>
       </c>
-      <c r="I3" t="str">
-        <f>CONCATENATE(A3,B3,C3,D3,E3,F3,G3,H3)</f>
-        <v>TXP_INC_C_Usuario</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>2</v>
-      </c>
       <c r="D4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" t="s">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
       </c>
       <c r="G4" t="s">
         <v>2</v>
       </c>
-      <c r="H4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" t="str">
-        <f>CONCATENATE(A4,B4,C4,D4,E4,F4,G4,H4)</f>
-        <v>TXP_INCC_Usuario</v>
+      <c r="I4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" t="str">
+        <f>CONCATENATE(B4,C4,D4,E4,F4,G4,H4,I4)</f>
+        <v>SPX_icCUsuario</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I8" t="s">
-        <v>11</v>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J8" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/00-Documentacion/nomenclatura.xlsx
+++ b/00-Documentacion/nomenclatura.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pc\raul\Net\migracion_spooler\00-Documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1AE4E6F-DC8C-4FD6-9BCF-22166712349D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E9A650E-258D-4DC9-B702-29BA060481BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{595E4830-43DA-4794-BED7-741D567A698A}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="37">
   <si>
     <t>T</t>
   </si>
@@ -63,9 +63,6 @@
     <t>comodin</t>
   </si>
   <si>
-    <t>|</t>
-  </si>
-  <si>
     <t>Nombre</t>
   </si>
   <si>
@@ -78,9 +75,6 @@
     <t>X</t>
   </si>
   <si>
-    <t>ic</t>
-  </si>
-  <si>
     <t>usua</t>
   </si>
   <si>
@@ -93,14 +87,71 @@
     <t>Store</t>
   </si>
   <si>
-    <t>SP</t>
+    <t xml:space="preserve">Sistema </t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>Spooler</t>
+  </si>
+  <si>
+    <t>Xpooler</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>WEB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modulo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">El módulo del sistema  </t>
+  </si>
+  <si>
+    <t>Num. De caracteres</t>
+  </si>
+  <si>
+    <t>variables de entrada SP</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>Nom. de la variable</t>
+  </si>
+  <si>
+    <t>variables de salida SP</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>variables de local SP</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>Funcion</t>
+  </si>
+  <si>
+    <t>Fn</t>
+  </si>
+  <si>
+    <t>Sp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,16 +159,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -125,12 +190,86 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -445,149 +584,283 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26FABF14-C099-4BEC-AF29-2D66042615C1}">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="21.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" customWidth="1"/>
     <col min="5" max="5" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23" customWidth="1"/>
+    <col min="10" max="10" width="22" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3">
+        <v>2</v>
+      </c>
+      <c r="F2" s="3">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3">
+        <v>1</v>
+      </c>
+      <c r="H2" s="3">
+        <v>1</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="3"/>
+      <c r="M2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="2" t="str">
+        <f>CONCATENATE(B3,C3,D3,E3,F3,G3,H3,I3)</f>
+        <v>Tx__C_usua</v>
+      </c>
+      <c r="M3" s="8"/>
+      <c r="N3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="B4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J1" t="s">
-        <v>12</v>
+      <c r="J4" s="2" t="str">
+        <f>CONCATENATE(B4,C4,D4,E4,F4,G4,H4,I4)</f>
+        <v>Spx_CUsuario</v>
+      </c>
+      <c r="M4" s="9"/>
+      <c r="N4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s">
-        <v>3</v>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="2" t="str">
+        <f>CONCATENATE(B5,C5,D5,E5,F5,G5,H5,I5)</f>
+        <v>Fnx_CUsuario</v>
+      </c>
+      <c r="M5" s="6"/>
+      <c r="N5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" t="s">
-        <v>1</v>
-      </c>
-      <c r="I3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" t="str">
-        <f>CONCATENATE(B3,C3,D3,E3,F3,G3,H3,I3)</f>
-        <v>TX_ic_C_usua</v>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" s="2" t="str">
+        <f>CONCATENATE(B6,C6,D6,E6,F6,G6,H6,I6)</f>
+        <v>exNom. de la variable</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="7" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s">
-        <v>2</v>
-      </c>
-      <c r="I4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J4" t="str">
-        <f>CONCATENATE(B4,C4,D4,E4,F4,G4,H4,I4)</f>
-        <v>SPX_icCUsuario</v>
-      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7" s="2" t="str">
+        <f t="shared" ref="J7:J8" si="0">CONCATENATE(B7,C7,D7,E7,F7,G7,H7,I7)</f>
+        <v>sxNom. de la variable</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N7" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="O7" s="10"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J8" t="s">
-        <v>9</v>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>vNom. de la variable</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="M2:M4"/>
+    <mergeCell ref="N7:O7"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>